--- a/bots/crawl_ch/output/bread_coop_2023-01-04.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-04.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorntoast 10 Scheiben 2.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkorntoast 10 Scheiben - Online kein Bestand 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>4.5</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
         <v>4.5</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Betty Bossi Bio Frischback Rustico Buttergipfel 3.50 Schweizer Franken</t>
+          <t>Betty Bossi Bio Frischback Rustico Buttergipfel - Online kein Bestand 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9350,7 +9350,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9419,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11115,7 +11115,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11399,7 +11399,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12470,7 +12470,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12888,7 +12888,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13809,7 +13809,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13882,7 +13882,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14183,7 +14183,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E194" t="n">
         <v>3</v>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14377,7 +14377,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14450,7 +14450,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14592,7 +14592,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14807,7 +14807,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14880,7 +14880,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15116,7 +15116,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E207" t="n">
         <v>4.5</v>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15659,7 +15659,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17357,7 +17357,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17426,7 +17426,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17779,7 +17779,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17848,7 +17848,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17917,7 +17917,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -17986,7 +17986,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18057,7 +18057,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18761,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18903,7 +18903,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -18972,7 +18972,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19252,7 +19252,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19394,7 +19394,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19463,7 +19463,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19532,7 +19532,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19751,7 +19751,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19893,7 +19893,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20102,7 +20102,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20238,7 +20238,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21098,7 +21098,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23841,7 +23841,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23910,7 +23910,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24052,7 +24052,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24121,7 +24121,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24259,7 +24259,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24328,7 +24328,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24397,7 +24397,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24466,7 +24466,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24539,7 +24539,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24608,7 +24608,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24677,7 +24677,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24746,7 +24746,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24815,7 +24815,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -24951,7 +24951,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25229,7 +25229,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25298,7 +25298,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25367,7 +25367,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25710,7 +25710,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25854,7 +25854,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -25927,7 +25927,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26000,7 +26000,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26069,7 +26069,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26138,7 +26138,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26284,7 +26284,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26353,7 +26353,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26495,7 +26495,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26564,7 +26564,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26706,7 +26706,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26913,7 +26913,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -26986,7 +26986,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27055,7 +27055,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27122,7 +27122,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27337,7 +27337,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27410,7 +27410,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27483,7 +27483,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27550,7 +27550,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27694,7 +27694,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27767,7 +27767,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27836,7 +27836,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27905,7 +27905,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -27972,7 +27972,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28039,7 +28039,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28108,7 +28108,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28177,7 +28177,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28244,7 +28244,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28313,7 +28313,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28380,7 +28380,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28447,7 +28447,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28516,7 +28516,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28536,9 +28536,11 @@
           <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
         </is>
       </c>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="n">
+        <v>1</v>
+      </c>
       <c r="E398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -28583,7 +28585,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
@@ -28652,7 +28654,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-04 12:56:28</t>
+          <t>2023-01-04 20:49:24</t>
         </is>
       </c>
     </row>
